--- a/experiment/quadratic/ex9_2_3/compare/Fuertemente-Estacionario/ex9_2_3_Fuertemente-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_3/compare/Fuertemente-Estacionario/ex9_2_3_Fuertemente-Estacionario.xlsx
@@ -494,13 +494,13 @@
         <v>111.17403404254799</v>
       </c>
       <c r="E2">
-        <v>0.00115092</v>
+        <v>0.001082924</v>
       </c>
       <c r="F2">
-        <v>0.05873679</v>
+        <v>0.023338165</v>
       </c>
       <c r="G2">
-        <v>0.0015991904867256638</v>
+        <v>0.0013926462687237028</v>
       </c>
       <c r="H2">
         <v>2310</v>
@@ -535,13 +535,13 @@
         <v>111.1740340425481</v>
       </c>
       <c r="E3">
-        <v>0.00340011</v>
+        <v>0.00280878</v>
       </c>
       <c r="F3">
-        <v>0.01723806</v>
+        <v>0.009558236</v>
       </c>
       <c r="G3">
-        <v>0.006493443515625</v>
+        <v>0.003255103333767927</v>
       </c>
       <c r="H3">
         <v>2681</v>
@@ -576,13 +576,13 @@
         <v>111.172681163526</v>
       </c>
       <c r="E4">
-        <v>0.01872729</v>
+        <v>0.017079352</v>
       </c>
       <c r="F4">
-        <v>0.0277974</v>
+        <v>0.038012372</v>
       </c>
       <c r="G4">
-        <v>0.02133771778723404</v>
+        <v>0.020168756826612906</v>
       </c>
       <c r="H4">
         <v>15589</v>
